--- a/04.questions-activities.xlsx
+++ b/04.questions-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\faa-git\power-bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0BC26-669B-47D8-9EBD-01CE8952B2CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428CE6C2-8051-4D1A-9232-1739A1DD11CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F5D424-D874-4F82-A281-3A03B25FF97A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -1068,6 +1068,201 @@
   </si>
   <si>
     <t>Create a histogram and identify top 10 percentile of customers to be targeted with promotions?</t>
+  </si>
+  <si>
+    <t>Which top 10 states should we target if we wish to increase our footprint in B2B sales?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Delivery DAte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each transaction based on the below logic :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Ship Mode = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Same Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Same as Ship Date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If Ship Mode = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Ship Date + 3 Days"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If Ship Mode = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Ship Date + 5 Days"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If Ship Mode =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Second Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Ship Date + 7 Days"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1589,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2724FD-4BB2-44AB-BDD1-4323E329D5EE}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,154 +2181,180 @@
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>21</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>84</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A44" s="3">
+        <v>21</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="15"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>22</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>23</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>24</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A46" s="19">
+        <v>9</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="15"/>
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="3">
+        <v>22</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>23</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>24</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
         <v>25</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="26" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="26"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="26"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
-      <c r="B53" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="B53" s="14"/>
       <c r="C53" s="15"/>
       <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="21" t="s">
-        <v>106</v>
-      </c>
+      <c r="B54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="15"/>
       <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="14"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>21</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D63" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2141,8 +2362,8 @@
     <hyperlink ref="D40" r:id="rId2" xr:uid="{16A00D95-F192-419E-8BBE-F525877935D1}"/>
     <hyperlink ref="D30" r:id="rId3" xr:uid="{A0A576E6-7783-4C1D-9C9F-A40558508C0E}"/>
     <hyperlink ref="D22" r:id="rId4" xr:uid="{0F465AD3-362C-4575-9561-FD1CB5B7337B}"/>
-    <hyperlink ref="D46" r:id="rId5" xr:uid="{D494A73D-33F4-4AAA-8557-1D7F9205A5DC}"/>
-    <hyperlink ref="D49" r:id="rId6" xr:uid="{846B0E5B-8DCB-47A8-B119-13241293BFF0}"/>
+    <hyperlink ref="D49" r:id="rId5" xr:uid="{D494A73D-33F4-4AAA-8557-1D7F9205A5DC}"/>
+    <hyperlink ref="D52" r:id="rId6" xr:uid="{846B0E5B-8DCB-47A8-B119-13241293BFF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
